--- a/ExcelPython3.xlsx
+++ b/ExcelPython3.xlsx
@@ -8,18 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Python com Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D8F61C-2B27-4EE9-BF07-4F60D878710B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E8DE13-E3AE-4E5D-9DAA-AA046A90D12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7A3EA9BD-7FB1-4D80-B7B3-08B34C803A55}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Planilha1!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Planilha1!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Planilha1!$B$2:$B$7</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -950,6 +945,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EAF6-45AA-B0CE-FA70B3F2205D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -969,6 +969,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-EAF6-45AA-B0CE-FA70B3F2205D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -988,6 +993,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-EAF6-45AA-B0CE-FA70B3F2205D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1007,6 +1017,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-EAF6-45AA-B0CE-FA70B3F2205D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1026,6 +1041,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-EAF6-45AA-B0CE-FA70B3F2205D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1045,6 +1065,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-EAF6-45AA-B0CE-FA70B3F2205D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2916,16 +2941,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2988,16 +3013,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3325,7 +3350,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ExcelPython3.xlsx
+++ b/ExcelPython3.xlsx
@@ -8,13 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Python com Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E8DE13-E3AE-4E5D-9DAA-AA046A90D12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6B6A25-0FEC-4187-91A8-FADC31B36F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7A3EA9BD-7FB1-4D80-B7B3-08B34C803A55}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Planilha1!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Planilha1!$C$2:$C$8</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Planilha1!$M$5</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Planilha1!$A$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Planilha1!$A$2:$A$8</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Planilha1!$C$2:$C$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Planilha1!$M$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Nomes</t>
   </si>
@@ -52,6 +61,9 @@
   </si>
   <si>
     <t>Fernanda</t>
+  </si>
+  <si>
+    <t>Henrique</t>
   </si>
 </sst>
 </file>
@@ -1254,6 +1266,462 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Altura</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Hugo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lucas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Adonai</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Marcio</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lucas Sales</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fernanda</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Henrique</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E6C3-4AD6-B5E2-FA24438A5ED8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="461078584"/>
+        <c:axId val="461079240"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Idades</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$A$2:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>Hugo</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Lucas</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Adonai</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Marcio</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Lucas Sales</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Fernanda</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Henrique</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$2:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>22</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-E6C3-4AD6-B5E2-FA24438A5ED8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="461078584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461079240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="461079240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461078584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1374,6 +1842,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2933,6 +3441,509 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3014,13 +4025,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -3042,6 +4053,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E111ADA-386A-4507-BA90-5324E330C803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3347,10 +4394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2233C99-C660-422F-8A0A-3A0DDA16BD23}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3435,6 +4482,17 @@
         <v>1.7</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
